--- a/artfynd/A 63363-2025 artfynd.xlsx
+++ b/artfynd/A 63363-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130700791</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>130699120</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>130699002</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>130894504</v>
       </c>
       <c r="B5" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>130904210</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>130905540</v>
       </c>
       <c r="B7" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>130894789</v>
       </c>
       <c r="B8" t="n">
-        <v>79710</v>
+        <v>79714</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>130901126</v>
       </c>
       <c r="B9" t="n">
-        <v>58516</v>
+        <v>58520</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>130946525</v>
       </c>
       <c r="B10" t="n">
-        <v>79240</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>130946059</v>
       </c>
       <c r="B11" t="n">
-        <v>79240</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>130951957</v>
       </c>
       <c r="B12" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/artfynd/A 63363-2025 artfynd.xlsx
+++ b/artfynd/A 63363-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,6 +1851,315 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131063376</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Vallen, Vallen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>397688</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7048558</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131061121</v>
+      </c>
+      <c r="B14" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vallen, Vallen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>397980</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7048389</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131060978</v>
+      </c>
+      <c r="B15" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Vallen, Vallen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>397981</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7048398</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Kall</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Fabian Pettersson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 63363-2025 artfynd.xlsx
+++ b/artfynd/A 63363-2025 artfynd.xlsx
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130904210</v>
+        <v>130905540</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,21 +1115,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>397838</v>
+        <v>397970</v>
       </c>
       <c r="R6" t="n">
-        <v>7048574</v>
+        <v>7048600</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130905540</v>
+        <v>130904210</v>
       </c>
       <c r="B7" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,21 +1222,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>397970</v>
+        <v>397838</v>
       </c>
       <c r="R7" t="n">
-        <v>7048600</v>
+        <v>7048574</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 63363-2025 artfynd.xlsx
+++ b/artfynd/A 63363-2025 artfynd.xlsx
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130905540</v>
+        <v>130904210</v>
       </c>
       <c r="B6" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,21 +1115,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>397970</v>
+        <v>397838</v>
       </c>
       <c r="R6" t="n">
-        <v>7048600</v>
+        <v>7048574</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130904210</v>
+        <v>130905540</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,21 +1222,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>397838</v>
+        <v>397970</v>
       </c>
       <c r="R7" t="n">
-        <v>7048574</v>
+        <v>7048600</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 63363-2025 artfynd.xlsx
+++ b/artfynd/A 63363-2025 artfynd.xlsx
@@ -1004,7 +1004,7 @@
         <v>130894504</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>130904210</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>130905540</v>
       </c>
       <c r="B7" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>130894789</v>
       </c>
       <c r="B8" t="n">
-        <v>79714</v>
+        <v>79715</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>130946525</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>130946059</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>130951957</v>
       </c>
       <c r="B12" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>131063376</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>131061121</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>131060978</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
